--- a/SCS/Output_SCS.xlsx
+++ b/SCS/Output_SCS.xlsx
@@ -8,32 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lagoa do Papicu" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lagoa Colosso" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lagoa da Sapiranga" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Lagoa da Messejana" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Açude Jangurussu" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Lagoa da Paupina" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Lagoa do Ancuri" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Lagoa do Passaré" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Açude São Jorge" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Lagoa Aldeia Velha" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Lagoa Pequeno Mondubim" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Lagoa do Areal" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Lagoa do Opaia" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Lagoa do Itaperi" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Lagoa da Libania" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Lagoa  Aracapé" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Lagoa da Maraponga" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Lagoa Prof. Gustavo Braga" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Lagoa de Porangabuçu" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Lagoa da Precabura" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Lagoa do Mondubim" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Lagoa da Parangaba" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Açude da Viuva" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Açude Santo Anastácio" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Lagoa do São Gerardo" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Lagoa do Urubu" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="BH1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="BH2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BH3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="BH4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BH5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="BH6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="BH7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="BH8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="BH9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="BH10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="BH11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="BH12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="BH13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="BH14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="BH15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="BH16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="BH17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="BH18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="BH19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="BH20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="BH21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="BH22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="BH23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="BH24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="BH25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="BH26" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
